--- a/musicPlatform/content_survey_result.xlsx
+++ b/musicPlatform/content_survey_result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E704424C-1950-49FC-AC2E-53DEBBDD5531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7087A7-440A-4B15-B7F3-12DD4A072D3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,20 +56,25 @@
     <t>vivian</t>
   </si>
   <si>
-    <t>leeyihsin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liaoyijhen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chiouzihling</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallhsu</t>
+  </si>
+  <si>
+    <t>alex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nicole</t>
+  </si>
+  <si>
+    <t>michael</t>
   </si>
 </sst>
 </file>
@@ -394,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -424,13 +429,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -438,13 +443,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,13 +457,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -466,13 +471,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -480,13 +485,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,37 +499,65 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
